--- a/FER MAY21 Свод Лота № 100 085 ed1.xlsx
+++ b/FER MAY21 Свод Лота № 100 085 ed1.xlsx
@@ -522,6 +522,8 @@
       <sz val="10"/>
       <color rgb="FF4D4D4D"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -879,9 +881,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -938,6 +937,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2934,7 +2936,7 @@
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S1" sqref="O1:S1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2964,7 +2966,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="72" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2984,38 +2986,38 @@
       <c r="E2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="63" t="s">
         <v>95</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="73" t="s">
         <v>90</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>51</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="T2" s="56" t="s">
+      <c r="T2" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="56" t="s">
+      <c r="U2" s="55" t="s">
         <v>92</v>
       </c>
       <c r="V2" s="9" t="s">
@@ -3044,7 +3046,7 @@
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="64" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="28" t="s">
@@ -3123,7 +3125,7 @@
       <c r="E4" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="64" t="s">
         <v>99</v>
       </c>
       <c r="G4" s="28" t="s">
@@ -3202,7 +3204,7 @@
       <c r="E5" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="64" t="s">
         <v>59</v>
       </c>
       <c r="G5" s="28" t="s">
@@ -3281,7 +3283,7 @@
       <c r="E6" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="64" t="s">
         <v>61</v>
       </c>
       <c r="G6" s="28" t="s">
@@ -3358,7 +3360,7 @@
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="64" t="s">
         <v>63</v>
       </c>
       <c r="G7" s="28" t="s">
@@ -3439,7 +3441,7 @@
       <c r="E8" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="64" t="s">
         <v>65</v>
       </c>
       <c r="G8" s="28" t="s">
@@ -3518,7 +3520,7 @@
       <c r="E9" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="64" t="s">
         <v>66</v>
       </c>
       <c r="G9" s="28" t="s">
@@ -3597,7 +3599,7 @@
       <c r="E10" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="64" t="s">
         <v>68</v>
       </c>
       <c r="G10" s="28" t="s">
@@ -3676,7 +3678,7 @@
         <v>23</v>
       </c>
       <c r="E11" s="28"/>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="64" t="s">
         <v>96</v>
       </c>
       <c r="G11" s="28" t="s">
@@ -3753,7 +3755,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="28"/>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="64" t="s">
         <v>72</v>
       </c>
       <c r="G12" s="28" t="s">
@@ -3834,7 +3836,7 @@
       <c r="E13" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="64" t="s">
         <v>74</v>
       </c>
       <c r="G13" s="28" t="s">
@@ -3915,7 +3917,7 @@
       <c r="E14" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="65" t="s">
         <v>76</v>
       </c>
       <c r="G14" s="40" t="s">
@@ -3980,46 +3982,46 @@
       <c r="AA14" s="45"/>
       <c r="AB14" s="45"/>
     </row>
-    <row r="15" spans="1:28" s="60" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
-      <c r="B15" s="62" t="s">
+    <row r="15" spans="1:28" s="59" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="62"/>
+      <c r="B15" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68">
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67">
         <f>SUM(O3:O14)</f>
         <v>58825</v>
       </c>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="70">
+      <c r="P15" s="67"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="69">
         <f>SUM(R3:R14)</f>
         <v>747077500</v>
       </c>
-      <c r="S15" s="70"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="72">
+      <c r="S15" s="69"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="71">
         <f>SUM(U3:U14)</f>
         <v>1270031750</v>
       </c>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="46"/>
